--- a/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400373</t>
-  </si>
-  <si>
-    <t>John Shimkus</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400373</t>
+  </si>
+  <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94940.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400373</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Shimkus</t>
@@ -407,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +446,39 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
